--- a/timetabling_GA/results/HK2_CT02_2025/LichHocKy_HK2_CT02_2025.xlsx
+++ b/timetabling_GA/results/HK2_CT02_2025/LichHocKy_HK2_CT02_2025.xlsx
@@ -85,18 +85,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFCCCB"/>
         <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,11 +118,44 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +660,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -641,22 +675,77 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
+      <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH011
 (Practice)
-Room: TH1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -670,7 +759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,27 +869,27 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -809,7 +898,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -820,22 +909,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -853,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,27 +1088,27 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -992,7 +1117,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1003,22 +1128,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1036,7 +1197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,27 +1307,27 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1175,7 +1336,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1186,22 +1347,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1219,7 +1416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,27 +1526,27 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1358,7 +1555,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1369,22 +1566,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1402,7 +1635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,27 +1745,27 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1541,7 +1774,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1552,22 +1785,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1585,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1695,27 +1964,27 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1724,7 +1993,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1735,22 +2004,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1878,27 +2183,27 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1912,22 +2217,22 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -1946,6 +2251,828 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 2 TIMETABLE (08/12/2025 - 14/12/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+08/12</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+09/12</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+10/12</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+11/12</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+12/12</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+13/12</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+14/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 3 TIMETABLE (15/12/2025 - 21/12/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+15/12</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+16/12</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+17/12</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+18/12</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+19/12</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+20/12</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+21/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 4 TIMETABLE (22/12/2025 - 28/12/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+22/12</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+23/12</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+24/12</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+25/12</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+26/12</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+27/12</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+28/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1995,7 +3122,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 2 TIMETABLE (08/12/2025 - 14/12/2025)</t>
+          <t>WEEK 5 TIMETABLE (29/12/2025 - 04/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2018,43 +3145,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-08/12</t>
+29/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-09/12</t>
+30/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-10/12</t>
+31/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-11/12</t>
+01/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-12/12</t>
+02/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-13/12</t>
+03/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-14/12</t>
+04/01</t>
         </is>
       </c>
     </row>
@@ -2066,7 +3193,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2075,9 +3202,9 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="8" t="inlineStr">
         <is>
-          <t>MH012
-(Practice)
-Room: TH1
+          <t>MH011
+(Theory)
+Room: LT4
 Lecturer: GV005</t>
         </is>
       </c>
@@ -2090,12 +3217,12 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2103,28 +3230,24 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2135,11 +3258,11 @@
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH012
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>MH011
 (Practice)
-Room: TH1
+Room: TH3
 Lecturer: GV005</t>
         </is>
       </c>
@@ -2153,32 +3276,40 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
 Room: LT3
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -2186,248 +3317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 3 TIMETABLE (15/12/2025 - 21/12/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-15/12</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-16/12</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-17/12</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-18/12</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-19/12</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-20/12</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-21/12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Practice)
-Room: TH1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Practice)
-Room: TH1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +3367,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 4 TIMETABLE (22/12/2025 - 28/12/2025)</t>
+          <t>WEEK 6 TIMETABLE (05/01/2026 - 11/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2500,43 +3390,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-22/12</t>
+05/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-23/12</t>
+06/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-24/12</t>
+07/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-25/12</t>
+08/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-26/12</t>
+09/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-27/12</t>
+10/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-28/12</t>
+11/01</t>
         </is>
       </c>
     </row>
@@ -2548,7 +3438,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2557,9 +3447,9 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="8" t="inlineStr">
         <is>
-          <t>MH012
-(Practice)
-Room: TH1
+          <t>MH011
+(Theory)
+Room: LT4
 Lecturer: GV005</t>
         </is>
       </c>
@@ -2572,12 +3462,12 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2585,16 +3475,16 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
@@ -2606,24 +3496,31 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
 Room: LT3
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
@@ -2639,13 +3536,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,7 +3586,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 5 TIMETABLE (29/12/2025 - 04/01/2026)</t>
+          <t>WEEK 7 TIMETABLE (12/01/2026 - 18/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2712,70 +3609,70 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-29/12</t>
+12/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-30/12</t>
+13/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-31/12</t>
+14/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-01/01</t>
+15/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-02/01</t>
+16/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-03/01</t>
+17/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-04/01</t>
+18/01</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2784,7 +3681,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2795,22 +3692,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2822,13 +3755,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2872,7 +3805,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 6 TIMETABLE (05/01/2026 - 11/01/2026)</t>
+          <t>WEEK 8 TIMETABLE (19/01/2026 - 25/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2895,70 +3828,70 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-05/01</t>
+19/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-06/01</t>
+20/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-07/01</t>
+21/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-08/01</t>
+22/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-09/01</t>
+23/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-10/01</t>
+24/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-11/01</t>
+25/01</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2967,7 +3900,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2978,22 +3911,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3005,13 +3974,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3055,7 +4024,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 7 TIMETABLE (12/01/2026 - 18/01/2026)</t>
+          <t>WEEK 9 TIMETABLE (26/01/2026 - 01/02/2026)</t>
         </is>
       </c>
     </row>
@@ -3078,70 +4047,70 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-12/01</t>
+26/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-13/01</t>
+27/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-14/01</t>
+28/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-15/01</t>
+29/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-16/01</t>
+30/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-17/01</t>
+31/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-18/01</t>
+01/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -3150,7 +4119,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3161,388 +4130,58 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 8 TIMETABLE (19/01/2026 - 25/01/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-19/01</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-20/01</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-21/01</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-22/01</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-23/01</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-24/01</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-25/01</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
 (Theory)
 Room: LT3
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 9 TIMETABLE (26/01/2026 - 01/02/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-26/01</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-27/01</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-28/01</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-29/01</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-30/01</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-31/01</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-01/02</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
